--- a/一组/项目开发.xlsx
+++ b/一组/项目开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="项目成员" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
   <si>
     <t>周日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,6 +426,46 @@
   </si>
   <si>
     <t>前台页面主题确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放学后完成页面任务，考虑如何转jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假一人，个别组员页面完成一般，其他组员帮补；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面加班加点初步完成，coding.net连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组员页面完成不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做出一点点，其他组员帮补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无进展，其他组员帮补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大概完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,23 +579,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -569,8 +594,26 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,369 +911,395 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="12.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="27">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="G8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="G9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="G10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="G11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="G12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="G13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="G14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="G15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="G16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" ht="40.5">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
+      <c r="G17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" ht="40.5">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="G18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="12">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="13">
         <v>0.90277777777777779</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="13">
         <v>0.34722222222222227</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="13">
+        <v>0.90277777777777779</v>
+      </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1243,19 +1312,21 @@
       <c r="P21" s="14"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="12">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="13">
         <v>0.88194444444444453</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="13">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="13">
+        <v>0.875</v>
+      </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1268,19 +1339,21 @@
       <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="12">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="13">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="13">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="13">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1293,19 +1366,21 @@
       <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="12">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="13">
         <v>0.875</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="13">
         <v>0.3576388888888889</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="13">
+        <v>0.875</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1318,19 +1393,21 @@
       <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="12">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="13">
         <v>0.875</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="13">
         <v>0.3576388888888889</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="13">
+        <v>0.88194444444444453</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1343,19 +1420,21 @@
       <c r="P25" s="14"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="15">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="13">
         <v>0.72916666666666663</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1368,8 +1447,8 @@
       <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="B27" s="1"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -1394,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1423,65 +1502,69 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="27">
+    <row r="3" spans="2:5" ht="40.5">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1494,7 +1577,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1526,22 +1609,26 @@
       <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="27">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
@@ -1550,7 +1637,7 @@
       <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
@@ -1560,7 +1647,7 @@
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
@@ -1570,7 +1657,7 @@
       <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
@@ -1580,7 +1667,7 @@
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
@@ -1590,7 +1677,7 @@
       <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
@@ -1609,98 +1696,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="62.375" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="11.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="62.375" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="6">
         <v>1521</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>78</v>
       </c>
     </row>

--- a/一组/项目开发.xlsx
+++ b/一组/项目开发.xlsx
@@ -240,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周三上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周三晚上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,6 +462,10 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -950,19 +950,19 @@
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1010,13 +1010,13 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1031,13 +1031,13 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1052,13 +1052,13 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1073,13 +1073,13 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1115,13 +1115,13 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1136,13 +1136,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1157,13 +1157,13 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1178,13 +1178,13 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1199,13 +1199,13 @@
         <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1220,13 +1220,13 @@
         <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1254,39 +1254,39 @@
         <v>55</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="12">
         <v>0.36458333333333331</v>
@@ -1300,7 +1300,9 @@
       <c r="F21" s="13">
         <v>0.90277777777777779</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="13">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -1313,7 +1315,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="B22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="12">
         <v>0.36458333333333331</v>
@@ -1340,7 +1342,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="B23" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="12">
         <v>0.36458333333333331</v>
@@ -1367,7 +1369,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="B24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="12">
         <v>0.36458333333333331</v>
@@ -1381,7 +1383,9 @@
       <c r="F24" s="13">
         <v>0.875</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="13">
+        <v>0.34375</v>
+      </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1394,7 +1398,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="B25" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="12">
         <v>0.36458333333333331</v>
@@ -1421,7 +1425,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="B26" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="15">
         <v>0.36458333333333331</v>
@@ -1430,10 +1434,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -1503,13 +1507,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="40.5">
@@ -1517,13 +1521,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -1610,10 +1614,10 @@
         <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27">
@@ -1624,10 +1628,10 @@
         <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1710,20 +1714,20 @@
         <v>46</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6">
         <v>1521</v>
@@ -1734,7 +1738,7 @@
         <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6">
         <v>1.8</v>
@@ -1742,7 +1746,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="8">
         <v>7</v>
@@ -1760,35 +1764,35 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1810,25 +1814,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">

--- a/一组/项目开发.xlsx
+++ b/一组/项目开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目成员" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="120">
   <si>
     <t>周日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +466,34 @@
   </si>
   <si>
     <t>周三上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始写后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台整合80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善界面，搭建后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善首页，开始写后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台框架搭建完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台进展慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台界面待完善，后台框架需要完善</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -923,7 +951,8 @@
     <col min="4" max="4" width="14.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="9" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="9"/>
+    <col min="7" max="7" width="16.75" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
@@ -1003,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="27">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1018,13 +1047,15 @@
       <c r="G8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="27">
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1039,13 +1070,15 @@
       <c r="G9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="27">
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1060,13 +1093,15 @@
       <c r="G10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="27">
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>20</v>
@@ -1081,13 +1116,15 @@
       <c r="G11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="27">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>22</v>
@@ -1102,13 +1139,15 @@
       <c r="G12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="27">
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1123,13 +1162,15 @@
       <c r="G13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="27">
       <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1144,7 +1185,9 @@
       <c r="G14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1165,13 +1208,15 @@
       <c r="G15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" ht="27">
       <c r="B16" s="4"/>
       <c r="C16" s="11" t="s">
         <v>25</v>
@@ -1186,13 +1231,15 @@
       <c r="G16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="40.5">
+    <row r="17" spans="1:16" ht="27">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
@@ -1207,13 +1254,15 @@
       <c r="G17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="40.5">
+    <row r="18" spans="1:16" ht="27">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
@@ -1228,7 +1277,9 @@
       <c r="G18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1303,7 +1354,9 @@
       <c r="G21" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="13">
+        <v>0.90277777777777779</v>
+      </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
@@ -1329,8 +1382,12 @@
       <c r="F22" s="13">
         <v>0.875</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="G22" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0.88888888888888884</v>
+      </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
@@ -1356,8 +1413,12 @@
       <c r="F23" s="13">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
@@ -1386,7 +1447,9 @@
       <c r="G24" s="13">
         <v>0.34375</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="13">
+        <v>0.90277777777777779</v>
+      </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -1412,8 +1475,12 @@
       <c r="F25" s="13">
         <v>0.88194444444444453</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="G25" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -1439,8 +1506,12 @@
       <c r="F26" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="G26" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -1477,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1530,13 +1601,19 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" ht="40.5">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
@@ -1581,7 +1658,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1641,8 +1718,12 @@
       <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="1" t="s">

--- a/一组/项目开发.xlsx
+++ b/一组/项目开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="项目成员" sheetId="1" r:id="rId1"/>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1357,7 +1357,9 @@
       <c r="H21" s="13">
         <v>0.90277777777777779</v>
       </c>
-      <c r="I21" s="14"/>
+      <c r="I21" s="13">
+        <v>0.3125</v>
+      </c>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -1548,7 +1550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
